--- a/src/JCSGYK/AdminBundle/Resources/public/reports/catering_summary_detailed.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/catering_summary_detailed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="8960" windowWidth="39980" windowHeight="18320"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>[ca.cim][ca.klub]</t>
   </si>
@@ -33,25 +33,7 @@
     <t>Étkezési napok száma</t>
   </si>
   <si>
-    <t>Térítési díj / adag</t>
-  </si>
-  <si>
-    <t>[catering.unit_price]</t>
-  </si>
-  <si>
     <t>[catering.days;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[catering.discount_days;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>Fizetendő</t>
-  </si>
-  <si>
-    <t>[catering.amount]</t>
-  </si>
-  <si>
-    <t>Jóvá-írások</t>
   </si>
   <si>
     <t>Étkezési napok munkanap</t>
@@ -134,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -188,8 +170,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -315,27 +310,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,17 +340,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -416,6 +410,7 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -478,6 +473,7 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -875,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -886,243 +882,213 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="32" width="1.85546875" customWidth="1"/>
     <col min="33" max="33" width="6" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" style="5" customWidth="1"/>
-    <col min="35" max="35" width="7.140625" style="5" customWidth="1"/>
-    <col min="36" max="36" width="7" customWidth="1"/>
-    <col min="37" max="37" width="5" customWidth="1"/>
+    <col min="34" max="34" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1">
+    <row r="2" spans="1:34" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="AG2" s="1"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
+      <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:37" s="7" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:34" s="4" customFormat="1" ht="28" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8">
+        <v>10</v>
+      </c>
+      <c r="L4" s="8">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8">
         <v>12</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="12" t="s">
+      <c r="N4" s="8">
+        <v>13</v>
+      </c>
+      <c r="O4" s="8">
+        <v>14</v>
+      </c>
+      <c r="P4" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>16</v>
+      </c>
+      <c r="R4" s="8">
+        <v>17</v>
+      </c>
+      <c r="S4" s="8">
+        <v>18</v>
+      </c>
+      <c r="T4" s="8">
+        <v>19</v>
+      </c>
+      <c r="U4" s="8">
+        <v>20</v>
+      </c>
+      <c r="V4" s="8">
+        <v>21</v>
+      </c>
+      <c r="W4" s="8">
+        <v>22</v>
+      </c>
+      <c r="X4" s="8">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>31</v>
+      </c>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AI3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK3" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15">
-        <v>3</v>
-      </c>
-      <c r="E4" s="15">
-        <v>4</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15">
-        <v>6</v>
-      </c>
-      <c r="H4" s="16">
-        <v>7</v>
-      </c>
-      <c r="I4" s="16">
-        <v>8</v>
-      </c>
-      <c r="J4" s="16">
-        <v>9</v>
-      </c>
-      <c r="K4" s="16">
-        <v>10</v>
-      </c>
-      <c r="L4" s="16">
-        <v>11</v>
-      </c>
-      <c r="M4" s="16">
-        <v>12</v>
-      </c>
-      <c r="N4" s="16">
-        <v>13</v>
-      </c>
-      <c r="O4" s="16">
-        <v>14</v>
-      </c>
-      <c r="P4" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>16</v>
-      </c>
-      <c r="R4" s="16">
-        <v>17</v>
-      </c>
-      <c r="S4" s="16">
-        <v>18</v>
-      </c>
-      <c r="T4" s="16">
-        <v>19</v>
-      </c>
-      <c r="U4" s="16">
-        <v>20</v>
-      </c>
-      <c r="V4" s="16">
-        <v>21</v>
-      </c>
-      <c r="W4" s="16">
-        <v>22</v>
-      </c>
-      <c r="X4" s="16">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="16">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="16">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="16">
-        <v>31</v>
-      </c>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-    </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AK3:AK4"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:AF3"/>
     <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.8" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>
